--- a/data/trans_dic/P1002-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,69</t>
+          <t>2,04; 5,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,45</t>
+          <t>2,26; 6,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,3</t>
+          <t>2,22; 6,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,23</t>
+          <t>3,18; 7,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,16</t>
+          <t>3,63; 8,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 10,69</t>
+          <t>4,46; 10,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,99</t>
+          <t>3,67; 8,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,28</t>
+          <t>5,22; 9,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,12</t>
+          <t>3,2; 6,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,17</t>
+          <t>3,69; 7,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,43</t>
+          <t>3,43; 6,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,43</t>
+          <t>4,68; 7,54</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 6,29</t>
+          <t>2,02; 6,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,5</t>
+          <t>3,03; 7,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,63</t>
+          <t>2,27; 6,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,45</t>
+          <t>1,36; 4,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 10,18</t>
+          <t>4,55; 10,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 13,21</t>
+          <t>6,31; 13,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,29</t>
+          <t>2,98; 8,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 11,3</t>
+          <t>5,94; 10,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,45</t>
+          <t>3,83; 7,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,56</t>
+          <t>5,03; 9,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,86</t>
+          <t>3,14; 6,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,57</t>
+          <t>3,79; 6,7</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,17</t>
+          <t>3,42; 7,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 10,82</t>
+          <t>6,18; 11,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,46</t>
+          <t>4,23; 8,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 9,31</t>
+          <t>1,77; 9,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 15,92</t>
+          <t>5,7; 15,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,41; 22,21</t>
+          <t>12,49; 22,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,05; 21,52</t>
+          <t>8,98; 20,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,2</t>
+          <t>6,63; 13,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,56</t>
+          <t>4,63; 8,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,32</t>
+          <t>9,02; 13,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 10,52</t>
+          <t>6,17; 10,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 9,34</t>
+          <t>2,52; 9,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,01</t>
+          <t>5,35; 8,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,07</t>
+          <t>6,83; 10,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,93</t>
+          <t>4,19; 6,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,77</t>
+          <t>5,0; 7,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 10,85</t>
+          <t>6,68; 10,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 14,33</t>
+          <t>9,66; 14,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,32</t>
+          <t>8,11; 12,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,46</t>
+          <t>3,45; 8,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 8,56</t>
+          <t>6,29; 8,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,35; 11,22</t>
+          <t>8,39; 11,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 8,54</t>
+          <t>6,19; 8,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,52</t>
+          <t>4,46; 7,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,02</t>
+          <t>3,53; 8,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,47</t>
+          <t>3,9; 8,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,61</t>
+          <t>5,35; 9,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 10,37</t>
+          <t>5,69; 10,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,51</t>
+          <t>6,72; 11,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 22,21</t>
+          <t>16,26; 22,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,01; 17,54</t>
+          <t>12,18; 17,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,63; 15,69</t>
+          <t>9,03; 15,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,8</t>
+          <t>6,07; 9,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,99; 15,86</t>
+          <t>11,64; 15,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,05</t>
+          <t>9,72; 13,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,86</t>
+          <t>8,81; 12,89</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,82</t>
+          <t>1,64; 5,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,29</t>
+          <t>2,39; 7,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,78</t>
+          <t>1,89; 6,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 10,83</t>
+          <t>1,8; 10,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 10,58</t>
+          <t>7,51; 10,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,68; 16,86</t>
+          <t>12,62; 16,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,43; 13,38</t>
+          <t>9,32; 13,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,06; 16,11</t>
+          <t>12,03; 16,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,39</t>
+          <t>6,63; 9,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,77; 14,34</t>
+          <t>10,97; 14,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,3</t>
+          <t>8,11; 11,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,83; 13,76</t>
+          <t>9,98; 13,74</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,02</t>
+          <t>4,45; 6,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,66</t>
+          <t>5,78; 7,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,17</t>
+          <t>4,61; 6,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,36</t>
+          <t>4,28; 6,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,44</t>
+          <t>7,5; 9,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,84; 15,22</t>
+          <t>12,72; 15,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,69; 11,83</t>
+          <t>9,63; 11,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,01</t>
+          <t>7,97; 11,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 7,6</t>
+          <t>6,29; 7,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,63; 11,16</t>
+          <t>9,65; 11,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 8,87</t>
+          <t>7,42; 8,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,62; 8,46</t>
+          <t>6,64; 8,54</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de hacer algunas tareas por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16843</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17160</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16298</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24028</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18450</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22174</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20416</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31411</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35294</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39334</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36713</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>55440</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9674; 26415</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9860; 28344</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9520; 27395</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16075; 35567</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11136; 27085</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14011; 32487</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12749; 30533</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23348; 42741</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24966; 47971</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27719; 55338</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26589; 49300</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44549; 71842</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13156</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20769</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15316</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11175</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26386</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32075</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19638</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30863</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39543</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52844</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34955</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>42038</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7406; 22606</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12695; 32824</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8558; 24491</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6138; 20960</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16915; 37582</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21322; 45726</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11083; 30238</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22735; 41945</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28285; 53311</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38086; 68901</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23553; 47336</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>31636; 55959</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27990</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>53073</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31594</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36220</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16814</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>43715</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23681</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15706</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44804</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96788</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>55275</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51926</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18576; 39819</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38917; 71740</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22098; 45390</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11796; 62190</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9570; 26096</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32492; 57477</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14920; 34293</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11068; 22377</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32864; 59687</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>80269; 119780</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>42445; 71527</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21026; 79403</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>82040</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>96487</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>61785</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>64566</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>61096</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>90718</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>83052</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>61440</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>143136</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>187206</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>144837</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>126007</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66240; 100450</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>79104; 117996</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>48144; 79407</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>51693; 82007</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>47702; 76887</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>74050; 111949</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>66998; 102723</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33747; 82657</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>122846; 167770</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>161593; 217410</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>122217; 169548</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>89780; 150760</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20470</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29480</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>45720</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36377</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>50987</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>145038</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>109215</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>106930</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>71457</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>174518</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>154935</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>143306</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12362; 31161</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19892; 42294</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33215; 58560</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27053; 49244</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38247; 66182</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>123522; 167569</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>89911; 129136</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>75952; 128201</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>55806; 90311</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>147732; 200362</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>132036; 181659</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>115943; 169594</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10034</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11607</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10694</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10985</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>112003</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>161519</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>122111</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>106088</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>122037</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>173126</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>132806</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>117073</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4884; 17557</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6390; 20014</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5427; 19511</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4332; 25307</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>93833; 136458</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>139984; 186530</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100792; 144475</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>91514; 123731</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>102602; 147600</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>151017; 201848</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>110976; 155869</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>99869; 137566</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>170534</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>228575</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>181408</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>183351</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>285736</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>495240</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>378113</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>352438</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>456270</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>723815</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>559521</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>535790</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>145613; 197516</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>197507; 258101</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>156069; 210043</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>144413; 216788</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>253226; 320299</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>451249; 537140</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>339962; 418676</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>284887; 394394</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>418258; 498124</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>672406; 774556</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>512978; 604709</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>461284; 593362</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P1002-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
